--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,276 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Serbian First League</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FK Loznica</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Fk Smederevo</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>950</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Danish 2nd Division</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HIK Hellerup</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Vendsyssel FF</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,112 +802,517 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>1.26</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.2</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M5" t="n">
         <v>1.01</v>
       </c>
-      <c r="N3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>480</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.01</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -706,13 +706,13 @@
         <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -865,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
@@ -940,16 +940,16 @@
         <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>3.2</v>
@@ -979,19 +979,19 @@
         <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
         <v>1.68</v>
       </c>
       <c r="X4" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1003,13 +1003,13 @@
         <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>60</v>
@@ -1018,13 +1018,13 @@
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
         <v>36</v>
@@ -1084,13 +1084,13 @@
         <v>1.31</v>
       </c>
       <c r="J5" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
         <v>8.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1105,10 +1105,10 @@
         <v>3.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S5" t="n">
         <v>1.84</v>
@@ -1213,7 +1213,7 @@
         <v>1.81</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
         <v>5.7</v>
@@ -1234,10 +1234,10 @@
         <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
         <v>1.71</v>
@@ -1249,10 +1249,10 @@
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
         <v>1.21</v>
@@ -1309,10 +1309,280 @@
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO6" t="n">
         <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -805,13 +805,13 @@
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
         <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -832,7 +832,7 @@
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
         <v>1.98</v>
@@ -853,7 +853,7 @@
         <v>1.63</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -862,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
@@ -874,7 +874,7 @@
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -883,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
@@ -898,7 +898,7 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -949,28 +949,28 @@
         <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>1.2</v>
@@ -988,10 +988,10 @@
         <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
         <v>7.2</v>
@@ -1018,10 +1018,10 @@
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>90</v>
@@ -1030,16 +1030,16 @@
         <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
         <v>85</v>
@@ -1078,10 +1078,10 @@
         <v>16.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="I5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
         <v>6.8</v>
@@ -1090,40 +1090,40 @@
         <v>8.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
         <v>1.34</v>
       </c>
       <c r="R5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S5" t="n">
         <v>1.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X5" t="n">
         <v>55</v>
@@ -1216,7 +1216,7 @@
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.95</v>
@@ -1237,7 +1237,7 @@
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
         <v>1.71</v>
@@ -1252,7 +1252,7 @@
         <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.21</v>
@@ -1261,10 +1261,10 @@
         <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
         <v>44</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
         <v>2.04</v>
@@ -1357,7 +1357,7 @@
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.25</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.48</v>
@@ -1516,7 +1516,7 @@
         <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.89</v>
@@ -1525,10 +1525,10 @@
         <v>1.93</v>
       </c>
       <c r="V8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1540,7 +1540,7 @@
         <v>15.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
@@ -1564,22 +1564,22 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
         <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>29</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,27 +653,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fk Smederevo</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -682,7 +682,7 @@
         <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,28 +691,28 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.01</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,111 +788,111 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HIK Hellerup</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>Fk Smederevo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,16 +904,16 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>HIK Hellerup</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>2.58</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.04</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.79</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>16.5</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>1.23</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>6.8</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>2.68</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.34</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4.3</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.07</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>70</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>36</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>480</v>
-      </c>
       <c r="AK5" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.67</v>
+        <v>9.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>1.25</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>1.32</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.01</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>3.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>1.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>4.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>1.07</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>440</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN6" t="n">
         <v>140</v>
       </c>
-      <c r="AB6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,260 +1328,395 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Paysandu</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Amazonas FC</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>3.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="G9" t="n">
         <v>3.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="H9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.48</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.05</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>1.42</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.26</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>4.1</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>1.89</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="U9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X9" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="Y9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>65</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM9" t="n">
         <v>150</v>
       </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.17</v>
@@ -709,10 +709,10 @@
         <v>1.17</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,31 +793,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>FC Gutersloh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fk Smederevo</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,105 +923,105 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HIK Hellerup</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>Fk Smederevo</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1033,22 +1033,22 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>HIK Hellerup</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.7</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.15</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.68</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
         <v>25</v>
       </c>
-      <c r="AA5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14</v>
-      </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AO5" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="n">
         <v>9.6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
         <v>14</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X6" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
         <v>65</v>
       </c>
-      <c r="AC6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>440</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>120</v>
-      </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>9.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.82</v>
+        <v>15.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>1.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>1.31</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.01</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>4.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>1.07</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>440</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="n">
         <v>140</v>
       </c>
-      <c r="AB7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,261 +1463,396 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Paysandu</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Amazonas FC</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>1.48</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>1.08</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>3.05</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>1.42</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.22</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R10" t="n">
         <v>1.26</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>4.1</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="T10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>980</v>
       </c>
-      <c r="AB9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
         <v>980</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
         <v>980</v>
       </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AL10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="n">
         <v>150</v>
       </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>29</v>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -688,7 +688,7 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>1.32</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>1.36</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>2.44</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.06</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1138,19 +1138,19 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
         <v>15.5</v>
@@ -1159,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,7 +1168,7 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>48</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
         <v>2.46</v>
@@ -1222,7 +1222,7 @@
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.56</v>
@@ -1231,13 +1231,13 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
         <v>2.62</v>
@@ -1249,16 +1249,16 @@
         <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1273,7 +1273,7 @@
         <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC6" t="n">
         <v>7</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I7" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.17</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
@@ -1378,22 +1378,22 @@
         <v>1.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="W7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X7" t="n">
         <v>55</v>
@@ -1402,7 +1402,7 @@
         <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
         <v>13.5</v>
@@ -1411,31 +1411,31 @@
         <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI7" t="n">
         <v>34</v>
       </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="AK7" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AL7" t="n">
         <v>120</v>
@@ -1447,7 +1447,7 @@
         <v>140</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB8" t="n">
         <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>21</v>
       </c>
-      <c r="AE8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1795,10 +1795,10 @@
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
         <v>11.5</v>
@@ -1810,10 +1810,10 @@
         <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
         <v>7.8</v>
@@ -1828,16 +1828,16 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,60 +653,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2" t="n">
+        <v>980</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.09</v>
       </c>
-      <c r="G2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,33 +788,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Gutersloh</t>
+          <t>FK Usce Novi Beograd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TSV Havelse</t>
+          <t>FK Borac Cacak</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -823,25 +823,25 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.02</v>
       </c>
-      <c r="N3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.15</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fk Smederevo</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>2.44</v>
+        <v>1.32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>1.17</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>1.17</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,105 +1058,105 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HIK Hellerup</t>
+          <t>FC Gutersloh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>1.36</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>1.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1168,22 +1168,22 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Fk Smederevo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.74</v>
+        <v>2.44</v>
       </c>
       <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.53</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>5.3</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>HIK Hellerup</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.26</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.34</v>
       </c>
-      <c r="J7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.11</v>
-      </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.85</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>3.9</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>60</v>
-      </c>
       <c r="AC7" t="n">
-        <v>20</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>2.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
         <v>980</v>
       </c>
-      <c r="Z8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AI8" t="n">
         <v>80</v>
       </c>
-      <c r="AF8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>1.26</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>1.33</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,125 +1733,395 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>1.69</v>
       </c>
       <c r="H10" t="n">
-        <v>2.62</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.84</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>2.44</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD12" t="n">
         <v>13</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE12" t="n">
         <v>980</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF12" t="n">
         <v>21</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG12" t="n">
         <v>14</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH12" t="n">
         <v>20</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI12" t="n">
         <v>55</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ12" t="n">
         <v>55</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK12" t="n">
         <v>980</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL12" t="n">
         <v>60</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM12" t="n">
         <v>150</v>
       </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,60 +653,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>AFC Campulung Muscel</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.07</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Usce Novi Beograd</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FK Borac Cacak</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.09</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,10 +871,10 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -898,13 +898,13 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,60 +923,60 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>FK Usce Novi Beograd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>FK Borac Cacak</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>1.86</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.02</v>
       </c>
-      <c r="N4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.17</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1058,81 +1058,81 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Gutersloh</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TSV Havelse</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.36</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>1.15</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,13 +1141,13 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1168,13 +1168,13 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,72 +1193,72 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>Krka</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fk Smederevo</t>
+          <t>NK Jadran Dekani</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>1.32</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,108 +1328,108 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HIK Hellerup</t>
+          <t>Dukla Banska Bystrica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>Zlate Moravce</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>980</v>
       </c>
       <c r="L7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.36</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W7" t="n">
         <v>2</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1444,16 +1444,16 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>FC Gutersloh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>600</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
+        <v>110</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.75</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>1.38</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.58</v>
+        <v>1.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3</v>
+        <v>1.15</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Fk Smederevo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>2.34</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.26</v>
+        <v>2.96</v>
       </c>
       <c r="I9" t="n">
-        <v>1.33</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="O9" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.35</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.08</v>
+        <v>1.52</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Pohronie</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Lokomotiva Zvolen</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>2.84</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="R10" t="n">
         <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>2.44</v>
+        <v>1.54</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,260 +1868,1745 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Nafta Lendava</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>1.09</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>1.26</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Slovenian 2 SNL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Krsko</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Danish 2nd Division</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>HIK Hellerup</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vendsyssel FF</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Danish 2nd Division</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FC Helsingor</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>980</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>980</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Danish 2nd Division</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fremad Amager</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>980</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Slovenian 2 SNL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NK Brinje Grosuplje</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NK Bilje</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AC Bra</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>870</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Forli</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nuovo Campobasso</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>980</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X20" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>380</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Paysandu</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Amazonas FC</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F23" t="n">
         <v>2.84</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.62</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="I23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.55</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L23" t="n">
         <v>1.47</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M23" t="n">
         <v>1.08</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N23" t="n">
         <v>3</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O23" t="n">
         <v>1.42</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P23" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.26</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S23" t="n">
         <v>4.1</v>
       </c>
-      <c r="T12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="T23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.97</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V23" t="n">
         <v>1.55</v>
       </c>
-      <c r="W12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="W23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X23" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y23" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z23" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AA23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC23" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD23" t="n">
         <v>13</v>
       </c>
-      <c r="AE12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AE23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG23" t="n">
         <v>14</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH23" t="n">
         <v>20</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI23" t="n">
         <v>55</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AJ23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL23" t="n">
         <v>60</v>
       </c>
-      <c r="AM12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AM23" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -670,7 +670,7 @@
         <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1.12</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -679,13 +679,13 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -694,19 +694,19 @@
         <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -718,7 +718,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
         <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -898,13 +898,13 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>1.99</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.1</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,16 +1003,16 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>5.6</v>
@@ -1102,25 +1102,25 @@
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
         <v>1.96</v>
@@ -1207,100 +1207,100 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.31</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>1.32</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
         <v>600</v>
@@ -1486,37 +1486,37 @@
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>110</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="Q8" t="n">
         <v>1.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
         <v>2.8</v>
@@ -1630,40 +1630,40 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>1.47</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1882,100 +1882,100 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="H11" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>1.26</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.09</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.3</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.25</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>1.02</v>
+        <v>2.74</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
@@ -2170,19 +2170,19 @@
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
@@ -2194,13 +2194,13 @@
         <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
         <v>1.45</v>
@@ -2209,10 +2209,10 @@
         <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
         <v>95</v>
@@ -2236,7 +2236,7 @@
         <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
         <v>130</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G14" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="W14" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,55 +2425,55 @@
         <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>500</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,46 +2557,46 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.29</v>
+        <v>2.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>1.28</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>1.21</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2608,7 +2608,7 @@
         <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,100 +2692,100 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="G17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.41</v>
       </c>
-      <c r="H17" t="n">
-        <v>11</v>
-      </c>
-      <c r="I17" t="n">
-        <v>870</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="V17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG17" t="n">
         <v>15.5</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2980,7 +2980,7 @@
         <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
@@ -2995,7 +2995,7 @@
         <v>1.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R19" t="n">
         <v>1.21</v>
@@ -3004,7 +3004,7 @@
         <v>5.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
         <v>1.84</v>
@@ -3016,7 +3016,7 @@
         <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>10.5</v>
@@ -3025,7 +3025,7 @@
         <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AB19" t="n">
         <v>9</v>
@@ -3046,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="n">
         <v>200</v>
@@ -3067,7 +3067,7 @@
         <v>120</v>
       </c>
       <c r="AO19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I20" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="J20" t="n">
         <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3130,22 +3130,22 @@
         <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R20" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S20" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
         <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.09</v>
@@ -3154,7 +3154,7 @@
         <v>55</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>12</v>
@@ -3166,10 +3166,10 @@
         <v>130</v>
       </c>
       <c r="AC20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -3187,10 +3187,10 @@
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AK20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL20" t="n">
         <v>250</v>
@@ -3199,10 +3199,10 @@
         <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="21">
@@ -3232,70 +3232,70 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G21" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
         <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
         <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
         <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
         <v>10.5</v>
@@ -3304,13 +3304,13 @@
         <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>75</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>9.6</v>
@@ -3319,7 +3319,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
         <v>16.5</v>
@@ -3331,13 +3331,13 @@
         <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
         <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
         <v>1.97</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>1.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.84</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.8</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3520,40 +3520,40 @@
         <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R23" t="n">
         <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U23" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
         <v>11.5</v>
@@ -3562,13 +3562,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
@@ -3580,13 +3580,13 @@
         <v>85</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
@@ -3598,7 +3598,7 @@
         <v>100</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
+        <v>160</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.02</v>
       </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="U2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.32</v>
+        <v>500</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>1.01</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.73</v>
       </c>
-      <c r="H3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.52</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
         <v>2.36</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Usce Novi Beograd</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FK Borac Cacak</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.28</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>1.72</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.84</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>2.34</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
         <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="n">
         <v>130</v>
       </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,90 +1058,90 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>FK Usce Novi Beograd</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>FK Borac Cacak</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.4</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="X5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,16 +1165,16 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Krka</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NK Jadran Dekani</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.32</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dukla Banska Bystrica</t>
+          <t>Krka</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zlate Moravce</t>
+          <t>NK Jadran Dekani</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.66</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,72 +1463,72 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Gutersloh</t>
+          <t>Dukla Banska Bystrica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TSV Havelse</t>
+          <t>Zlate Moravce</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>600</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.15</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1537,28 +1537,28 @@
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>FC Gutersloh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fk Smederevo</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.72</v>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
         <v>1.47</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.66</v>
       </c>
       <c r="S9" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.46</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pohronie</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lokomotiva Zvolen</t>
+          <t>Fk Smederevo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="H10" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
       <c r="R10" t="n">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,123 +1868,123 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Pohronie</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nafta Lendava</t>
+          <t>Lokomotiva Zvolen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.16</v>
       </c>
       <c r="H11" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.35</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Krsko</t>
+          <t>Nafta Lendava</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.51</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>5.9</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
-        <v>9.4</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
-        <v>2.74</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HIK Hellerup</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>Krsko</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.92</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>2.46</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.68</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.61</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>2.72</v>
       </c>
       <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>44</v>
-      </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Helsingor</t>
+          <t>HIK Hellerup</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.5</v>
+        <v>2.94</v>
       </c>
       <c r="G14" t="n">
-        <v>9.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.49</v>
+        <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>1.56</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>2.64</v>
+        <v>1.84</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>2.74</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>1.13</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2413,70 +2413,70 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>5.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.28</v>
+        <v>7.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>1.46</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>1.57</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>1.75</v>
+        <v>2.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>2.7</v>
       </c>
       <c r="W15" t="n">
-        <v>1.78</v>
+        <v>1.16</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,10 +2488,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2503,19 +2503,19 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2527,13 +2527,13 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NK Bilje</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.29</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>7.8</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.27</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>3.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>3.75</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2617,7 +2617,7 @@
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2626,13 +2626,13 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
@@ -2647,19 +2647,19 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,78 +2678,78 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>NK Brinje Grosuplje</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>NK Bilje</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>3.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="T17" t="n">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="V17" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.8</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2770,22 +2770,22 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.800000000000001</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.6</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,73 +2818,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1.35</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>14.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>2.46</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="W18" t="n">
-        <v>1.72</v>
+        <v>3.85</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.42</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.48</v>
-      </c>
       <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.55</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AA19" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>150</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AI19" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK19" t="n">
         <v>36</v>
       </c>
-      <c r="AK19" t="n">
-        <v>85</v>
-      </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.800000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="G20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="n">
         <v>12</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X20" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>110</v>
-      </c>
       <c r="AH20" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>3.65</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.64</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>1.71</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>1.27</v>
       </c>
       <c r="I21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J21" t="n">
         <v>6.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.2</v>
-      </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="S21" t="n">
-        <v>2.66</v>
+        <v>1.94</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.19</v>
+        <v>3.9</v>
       </c>
       <c r="W21" t="n">
-        <v>2.42</v>
+        <v>1.09</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Y21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>130</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>130</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.6</v>
+        <v>110</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AI21" t="n">
         <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16.5</v>
+        <v>360</v>
       </c>
       <c r="AK21" t="n">
-        <v>16.5</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,260 +3353,395 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="H22" t="n">
         <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>1.58</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.58</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Paysandu</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Amazonas FC</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="F24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L24" t="n">
         <v>1.49</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>1.09</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N24" t="n">
         <v>3.2</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="O24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.26</v>
       </c>
-      <c r="S23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="S24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.54</v>
       </c>
-      <c r="W23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="X24" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="Y24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
         <v>10</v>
       </c>
-      <c r="AC23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG24" t="n">
         <v>13</v>
       </c>
-      <c r="AE23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH23" t="n">
+      <c r="AH24" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AI24" t="n">
         <v>130</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AJ24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="n">
         <v>100</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL24" t="n">
         <v>150</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM24" t="n">
         <v>580</v>
       </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
+      <c r="AN24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO24" t="n">
         <v>80</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,90 +653,90 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AFC Campulung Muscel</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>34</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.01</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>160</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T2" t="n">
-        <v>1.02</v>
+        <v>8.6</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>500</v>
+        <v>1.38</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.01</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>PK-35 RY</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>5.8</v>
       </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.03</v>
       </c>
-      <c r="N3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.36</v>
+        <v>4.4</v>
       </c>
       <c r="X3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AL3" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>32</v>
-      </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Krka</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>NK Jadran Dekani</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>5.6</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.68</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>2.34</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>38</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AK4" t="n">
         <v>38</v>
       </c>
-      <c r="AI4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,81 +1058,81 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FK Usce Novi Beograd</t>
+          <t>Dukla Banska Bystrica</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FK Borac Cacak</t>
+          <t>Zlate Moravce</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.12</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>1.28</v>
       </c>
-      <c r="S5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1144,37 +1144,37 @@
         <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK5" t="n">
         <v>70</v>
       </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>85</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>FC Gutersloh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.65</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="T6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.55</v>
       </c>
-      <c r="U6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>27</v>
       </c>
-      <c r="AC6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>130</v>
       </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>900</v>
-      </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Krka</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NK Jadran Dekani</t>
+          <t>Fk Smederevo</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.37</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>150</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>85</v>
-      </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dukla Banska Bystrica</t>
+          <t>Pohronie</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Zlate Moravce</t>
+          <t>Lokomotiva Zvolen</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Gutersloh</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TSV Havelse</t>
+          <t>Nafta Lendava</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.46</v>
       </c>
-      <c r="U9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
-        <v>80</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,72 +1733,72 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fk Smederevo</t>
+          <t>Krsko</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.78</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.1</v>
       </c>
-      <c r="N10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>3.3</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1837,19 +1837,19 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pohronie</t>
+          <t>HIK Hellerup</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lokomotiva Zvolen</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>2.16</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.3</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.58</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.86</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN11" t="n">
         <v>34</v>
       </c>
-      <c r="Y11" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>11</v>
-      </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nafta Lendava</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>2.34</v>
+        <v>1.37</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>5.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>2.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>3.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AK12" t="n">
         <v>130</v>
       </c>
-      <c r="AB12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AL12" t="n">
         <v>100</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,123 +2138,123 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Krsko</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>2.72</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>2.72</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>75</v>
       </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>900</v>
-      </c>
       <c r="AK13" t="n">
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HIK Hellerup</t>
+          <t>NK Brinje Grosuplje</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>NK Bilje</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.94</v>
+        <v>1.42</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>1.48</v>
       </c>
       <c r="H14" t="n">
-        <v>2.56</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.68</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>3.05</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>110</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AK14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,78 +2408,78 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Helsingor</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.7</v>
+        <v>1.28</v>
       </c>
       <c r="G15" t="n">
-        <v>7.6</v>
+        <v>1.32</v>
       </c>
       <c r="H15" t="n">
-        <v>1.46</v>
+        <v>15.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.57</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="K15" t="n">
         <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.86</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="V15" t="n">
-        <v>2.7</v>
+        <v>1.05</v>
       </c>
       <c r="W15" t="n">
-        <v>1.16</v>
+        <v>4.1</v>
       </c>
       <c r="X15" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,52 +2488,52 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>95</v>
+        <v>7.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>80</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AK15" t="n">
-        <v>190</v>
+        <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,123 +2543,123 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>2.86</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>2.94</v>
       </c>
       <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S16" t="n">
         <v>4.3</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="U16" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NK Bilje</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.42</v>
+        <v>2.44</v>
       </c>
       <c r="G17" t="n">
-        <v>1.49</v>
+        <v>2.48</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG17" t="n">
         <v>12</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>36</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.31</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.35</v>
       </c>
-      <c r="H18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18</v>
-      </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.05</v>
+        <v>3.7</v>
       </c>
       <c r="W18" t="n">
-        <v>3.85</v>
+        <v>1.11</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG18" t="n">
         <v>110</v>
       </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>260</v>
       </c>
       <c r="AL18" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.8</v>
+        <v>140</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.2</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
         <v>1.25</v>
       </c>
-      <c r="S19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>9.6</v>
       </c>
       <c r="AH19" t="n">
-        <v>65</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
         <v>85</v>
       </c>
-      <c r="AK19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.48</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="H20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.45</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,531 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC21" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="G21" t="n">
-        <v>12</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X21" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
         <v>17</v>
       </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>65</v>
-      </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Briton Ferry Llansawel</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH22" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Atl Tucuman</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Paysandu</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Amazonas FC</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
